--- a/StockScrape/StockData.xlsx
+++ b/StockScrape/StockData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>97.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(+0.03%)</t>
+          <t>(+0.12%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6,633,747</t>
+          <t>15,136,059</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>62.66</t>
+          <t>62.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(+0.05%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9,783,895</t>
+          <t>27,961,145</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>446.48</t>
+          <t>450.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(+0.03%)</t>
+          <t>(+0.09%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16,376,806</t>
+          <t>34,381,556</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100.51</t>
+          <t>102.20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(-0.29%)</t>
+          <t>(-0.19%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3,366,226</t>
+          <t>7,743,403</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>229.42</t>
+          <t>230.01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(+0.05%)</t>
+          <t>(-0.16%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,038,387</t>
+          <t>5,064,021</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>306.00</t>
+          <t>309.24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(+0.00%)</t>
+          <t>(+0.42%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,162,733</t>
+          <t>6,619,794</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>214.02</t>
+          <t>207.22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79,685,043</t>
+          <t>85,126,559</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>175.24</t>
+          <t>176.75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(+0.14%)</t>
+          <t>(+0.11%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6,162,599</t>
+          <t>8,626,095</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45.94</t>
+          <t>47.52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-0.07%)</t>
+          <t>(+0.49%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17,599,463</t>
+          <t>64,974,357</t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>457.10</t>
+          <t>450.16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(-0.07%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1,796,689</t>
+          <t>3,786,583</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>170.36</t>
+          <t>172.50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(-0.11%)</t>
+          <t>(+0.02%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3,383,748</t>
+          <t>10,179,098</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>31.15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(-0.07%)</t>
+          <t>(+0.19%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33,094,560</t>
+          <t>91,929,114</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>197.15</t>
+          <t>196.36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(+0.08%)</t>
+          <t>(+0.03%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8,914,247</t>
+          <t>20,855,901</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>250.90</t>
+          <t>259.78</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(+0.04%)</t>
+          <t>(+0.15%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2,817,656</t>
+          <t>8,334,756</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>231.86</t>
+          <t>244.90</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(+0.02%)</t>
+          <t>(-0.07%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7,041,735</t>
+          <t>15,855,930</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>40.13</t>
+          <t>40.27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(+0.12%)</t>
+          <t>(+0.07%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17,098,960</t>
+          <t>30,014,866</t>
         </is>
       </c>
     </row>
@@ -866,17 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>273.52</t>
+          <t>275.21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(-0.04%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6,689,629</t>
+          <t>14,595,495</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>67.60</t>
+          <t>67.85</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(0.00%)</t>
+          <t>(-0.10%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12,070,606</t>
+          <t>25,868,169</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>101.50</t>
+          <t>102.39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(0.00%)</t>
+          <t>(+0.12%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7,034,866</t>
+          <t>14,116,919</t>
         </is>
       </c>
     </row>
